--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/es_ES.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/es_ES.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6200">
   <si>
     <t>translation_group</t>
   </si>
@@ -10208,7 +10208,7 @@
     <t>Configuración de SEO</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Complete los campos para obtener los máximos resultados al encontrar su sitio web en los motores de búsqueda.</t>
@@ -17146,6 +17146,1489 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Bienvenido a Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Utilice Microweber para crear su sitio web, tienda en línea o blog.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Crea y edita contenido, vende online, gestiona pedidos y clientes.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Carritos abandonados</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Estás usando esta plantilla.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>El cambio afectará solo a la página actual.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Permitir múltiples plantillas</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Si permite varias plantillas, podrá utilizar diferentes plantillas cuando cree páginas nuevas.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Configuración del sitio web de correo electrónico del sistema</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Envíe mensajes relacionados con nuevos registros, restablecimiento de contraseñas y otras funcionalidades del sistema.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>De la dirección de correo electrónico</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ex. Nombre de su sitio web</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Configuración general del proveedor de correo electrónico</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Configure su proveedor de correo electrónico.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>El proveedor de correo electrónico general entregará todos los mensajes relacionados con el sitio web. Incluidos los mensajes del sistema y los mensajes del formulario de contacto.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logotipo del sitio web</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Seleccione un logotipo para su sitio web.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Subir logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Sitio web Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Cambiando el idioma predeterminado ...</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Limpiar cache..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Instalar módulo multilenguaje</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Los usuarios registrados pueden recibir automáticamente un correo electrónico suyo. Vea la configuración y publique sus mensajes.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Enviar correo electrónico sobre el registro de un nuevo usuario a los usuarios administradores</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>¿Quiere que los administradores reciban un correo electrónico cuando se registre un nuevo usuario?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber es un creador de sitios web y CMS gratuito de código abierto de arrastrar y soltar. Está bajo licencia MIT y usamos el framework PHP Laravel</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Un control deslizante</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Envío a domicilio</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Recogida en dirección</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Configuración global</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Integraciones de correo electrónico</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>No tiene el correo electrónico del sistema ni la configuración de smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Configure los ajustes de su sistema aquí.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Configuración del formulario de contacto global</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Opciones de envío de correo electrónico</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Remitente global</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Usar configuraciones de remitente personalizadas</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Utilice la configuración de remitente personalizada para los formularios de contacto globales.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>De forma predeterminada, usaremos la configuración de correo electrónico del sistema del sitio web.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Puede cambiar la configuración de correo electrónico del sistema aquí.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Receptores globales</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Envíe los datos de los formularios de contacto a los receptores globales cuando se envíen</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>A direcciones de correo electrónico</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Dirección de correo electrónico de los receptores separados por coma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Póngase en contacto con su proveedor de alojamiento para habilitar la extensión PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementos</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>Hace 2 meses</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Quitar logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Quitar favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Personalizado</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProductosV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Cronología</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Marca blanca WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Versiones de contenido</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Diseños y elementos predeterminados</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Lista de flechas</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Lista comprobada</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Texto de fondo</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Título con texto</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Icono con texto</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Dos columnas de texto</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Dos columnas de texto con icono y título.</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Imagen con título y texto</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Texto con imagen y título</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Habilitar comentarios</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Configuración de captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configura tus preferencias de captcha desde </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Configuración actual del formulario de contacto</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Nombre del formulario de contacto</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el nombre de este formulario de contacto?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Receptores</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Envíe los datos del formulario de contacto a los receptores personalizados cuando se envíe</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Utilice la configuración de receptores personalizados para el formulario de contacto actual.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>De forma predeterminada, usaremos la configuración global del formulario de contacto.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Puede cambiar la configuración global del formulario de contacto aquí.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Mensaje de respuesta automática al usuario</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Habilitar mensaje de respuesta automática al usuario</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Permitir que los usuarios reciban "correos electrónicos de agradecimiento después de la suscripción".</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Las respuestas automáticas le permiten configurar respuestas automáticas a los correos electrónicos entrantes</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Remitente personalizado de respuesta automática</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Utilice la configuración de remitente personalizada para el formulario de contacto actual.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Respuesta automática desde la dirección de correo electrónico</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Respuesta automática desde el nombre</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Respuesta automática respuesta al correo electrónico</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Cuando el usuario recibe el mensaje de respuesta automática, puede responder para responder al correo electrónico.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Respuesta automática a archivos adjuntos de correo electrónico</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Aún no tienes ninguna publicación</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Crea tu primera publicación ahora mismo.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Crear una publicación</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Cómo escribir descripciones de productos que vendan
+                                                    Una de las mejores cosas que puede hacer para que su tienda tenga éxito es invertir algo de tiempo en escribir excelentes descripciones de productos. Desea proporcionar información detallada pero concisa que atraiga a los clientes potenciales a comprar.
+                                                    Piense como un consumidor
+                                                    Piense en lo que a usted, como consumidor, le gustaría saber, luego incluya esas características en su descripción. Para la ropa: materiales y ajuste. Para la comida: ingredientes y cómo se preparó. Las viñetas son tus amigas cuando enumeras
+                                                   funciones: intenta limitar cada una a
+                                                            u 8 palabras.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Idioma del administrador</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Límite</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Editor de código</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>títulos</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Títulos 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Títulos 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Títulos 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Títulos 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Títulos 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Títulos 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Títulos 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Títulos 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>bloque de texto</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Bloque de texto 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>bloque de texto 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Bloque de texto 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>bloque de texto 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Bloque de texto 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>bloque de texto 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>bloque de texto 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Bloque de texto 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>bloque de texto 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>bloque de texto 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Bloque de texto 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Bloque de texto 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Bloque de texto 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Bloque de texto 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Bloque de texto 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>características</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>caracteristicas 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>caracteristicas 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>caracteristicas 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>caracteristicas 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>rejillas</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>menú</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menú - piel-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menú - piel-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menú - piel-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menú - piel-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menú - piel-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>pies de página</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Pies de página 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Pies de página 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Pies de página 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Pies de página 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>otro</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>Jumbotrón 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>fijación de precios</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Precios 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Diseños predeterminados</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>No hay contenido aquí</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Los campos personalizados se guardan</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>campos existentes</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Elija entre sus campos existentes a continuación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agregar nuevos campos</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Agregue un nuevo campo personalizado de la lista a continuación</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>tus campos</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista de sus campos personalizados agregados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">repetir verticalmente </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Familia tipográfica</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Modo de mezcla</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Envase</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Tipo de contenedor</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>animaciones</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Estilos de recarga</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Vínculos a</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Paquete de vista previa</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Manifestación</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Usar</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Reordenar</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Redirección del navegador</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integración</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Actualizador independiente</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Necesita clave de licencia para instalar este paquete</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Este paquete es premium y debe tener una clave de licencia para instalarlo</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Necesita clave de licencia</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licencia activada</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>página de recarga</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licencia no activada</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Actualizaciones del sistema</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Buscar actualizaciones del sistema</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>volver a la lista</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>La categoría debe tener un nombre.</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>¿Está oculta la categoría?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Si establece esto en SÍ, esta categoría se ocultará del sitio web</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>mencionando</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Tu carrito esta vacío.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Resultados encontrados</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Si elige el porcentaje del campo de selección, se calculará automáticamente a partir del precio y el precio de oferta del producto.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>valores.multilenguaje.título.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Pasar por la caja</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Mostrando</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>resultados)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Título de la página: ruta de navegación derecha</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Título de la página: ruta de navegación izquierda</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Términos de Uso</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Entrega y devoluciones</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Alrededor de 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Sobre 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Alrededor de 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Casa 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>casa 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Debe hacer clic en el botón Aplicar plantilla para cambiar su plantilla</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Buscar por criterios</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Fecha de</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Establecer los pedidos desde la fecha</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Fecha hasta</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Establecer los pedidos a la fecha</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Importe del pedido desde</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Mostrar el pedido con importe mínimo</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Importe del pedido a</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Mostrar el pedido con importe máximo</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Buscar por productos...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Buscar por productos</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Estado de pago</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Búsqueda gratuita por teléfono, nombre, email, etc...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Enviar este criterio</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Restablecer filtro</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Exportar todo</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Seleccionar clasificación</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Fecha de orden</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Nuevo &gt; Antiguo]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Antiguo &gt; Nuevo]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Alto &gt; Bajo]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Bajo &gt; Alto]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Pedido completado</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>Se han encontrado traducciones del módulo multilenguaje en su base de datos.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>¡Advertencia! Cambiar el idioma predeterminado puede interrumpir las traducciones en su sitio.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>¿Seguro que quieres continuar?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>¡Advertencia! El idioma predeterminado cambiante tal vez rompa su sitio.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Detalles de envío</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>el pedido aún no se ha completado</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>el pedido esta completo</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista rápida </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Reemplazar valores de idioma</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Las traducciones son importadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traducciones no encontradas en la base de datos. ¿Desea importar traducciones? </t>
   </si>
 </sst>
 </file>
@@ -17169,10 +18652,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17183,7 +18663,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17484,7 +18964,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67795,8 +69275,4393 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4943</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>816</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4235</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5901</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3062" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6082</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5901</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6092</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6092</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4360</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6186</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6187</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6188</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6189</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6190</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>2948</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6192</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6193</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6195</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6196</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6197</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6198</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6199</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -67808,5 +73673,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/es_ES.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/es_ES.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6011">
   <si>
     <t>translation_group</t>
   </si>
@@ -10211,7 +10211,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Complete los campos para obtener los máximos resultados al encontrar su sitio web en los motores de búsqueda.</t>
+    <t>Rellene los campos para obtener los máximos resultados al encontrar su sitio web en los motores de búsqueda.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17157,7 +17157,7 @@
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Utilice Microweber para crear su sitio web, tienda en línea o blog.</t>
+    <t>Use Microweber para construir su sitio web, tienda en línea o blog.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
@@ -17175,13 +17175,13 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Carritos abandonados</t>
+    <t>carros abandonados</t>
   </si>
   <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>Estás usando esta plantilla.</t>
+    <t>Está utilizando esta plantilla.</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
@@ -17199,7 +17199,7 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Si permite varias plantillas, podrá utilizar diferentes plantillas cuando cree páginas nuevas.</t>
+    <t>Si permite múltiples plantillas, podrá usar diferentes plantillas cuando cree una nueva página.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
@@ -17211,7 +17211,7 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Envíe mensajes relacionados con nuevos registros, restablecimiento de contraseñas y otras funcionalidades del sistema.</t>
+    <t>Entregar mensajes relacionados con nuevos registros, restablecimientos de contraseñas y otras funcionalidades del sistema.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17235,13 +17235,13 @@
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Configure su proveedor de correo electrónico.</t>
+    <t>Configura tu proveedor de correo electrónico.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>El proveedor de correo electrónico general entregará todos los mensajes relacionados con el sitio web. Incluidos los mensajes del sistema y los mensajes del formulario de contacto.</t>
+    <t>El proveedor general de correo electrónico entregará todos los mensajes relacionados con el sitio web. Incluyendo mensajes del sistema y mensajes del formulario de contacto.</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17259,19 +17259,19 @@
     <t>Upload logo</t>
   </si>
   <si>
-    <t>Subir logo</t>
+    <t>Subir logotipo</t>
   </si>
   <si>
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Sitio web Favicon</t>
+    <t>Favicon del sitio web</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Cambiando el idioma predeterminado ...</t>
+    <t>Cambiando el idioma por defecto..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17289,16 +17289,19 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Los usuarios pueden registrarse con correos electrónicos temporales como - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Los usuarios registrados pueden recibir automáticamente un correo electrónico suyo. Vea la configuración y publique sus mensajes.</t>
+    <t>Los usuarios registrados pueden recibir automáticamente un correo electrónico automático de usted. Vea la configuración y publique sus mensajes.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Enviar correo electrónico sobre el registro de un nuevo usuario a los usuarios administradores</t>
+    <t>Enviar correo electrónico sobre el registro de nuevos usuarios a los usuarios administradores</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
@@ -17310,13 +17313,13 @@
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber es un creador de sitios web y CMS gratuito de código abierto de arrastrar y soltar. Está bajo licencia MIT y usamos el framework PHP Laravel</t>
+    <t>Microweber es un creador de sitios web y CMS de código abierto y gratuito de arrastrar y soltar. Está bajo licencia MIT y usamos el framework Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>Un control deslizante</t>
+    <t>un control deslizante</t>
   </si>
   <si>
     <t>Shipping to address</t>
@@ -17328,7 +17331,7 @@
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Recogida en dirección</t>
+    <t>Recogida desde la dirección</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -17370,7 +17373,7 @@
     <t>Global sender</t>
   </si>
   <si>
-    <t>Remitente global</t>
+    <t>remitente global</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
@@ -17382,13 +17385,13 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Utilice la configuración de remitente personalizada para los formularios de contacto globales.</t>
+    <t>Use configuraciones de remitente personalizadas para los formularios de contacto globales.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>De forma predeterminada, usaremos la configuración de correo electrónico del sistema del sitio web.</t>
+    <t>De forma predeterminada, utilizaremos la configuración de correo electrónico del sistema del sitio web.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17406,7 +17409,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Envíe los datos de los formularios de contacto a los receptores globales cuando se envíen</t>
+    <t>Envíe datos de formularios de contacto a receptores globales cuando se envíe</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17418,7 +17421,7 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Dirección de correo electrónico de los receptores separados por coma.</t>
+    <t>Dirección de correo electrónico de los destinatarios separada por coma.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
@@ -17442,19 +17445,19 @@
     <t>Remove logo</t>
   </si>
   <si>
-    <t>Quitar logo</t>
+    <t>Quitar logotipo</t>
   </si>
   <si>
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Quitar favicon</t>
+    <t>Quitar icono favorito</t>
   </si>
   <si>
     <t>Custom</t>
   </si>
   <si>
-    <t>Personalizado</t>
+    <t>Disfraz</t>
   </si>
   <si>
     <t>bxSlider</t>
@@ -17463,6 +17466,9 @@
     <t>Schema.org</t>
   </si>
   <si>
+    <t>esquema.org</t>
+  </si>
+  <si>
     <t>ProductsV2</t>
   </si>
   <si>
@@ -17484,6 +17490,9 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Número de los testimonios visibles</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
@@ -17511,7 +17520,7 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>Lista comprobada</t>
+    <t>Lista marcada</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17547,7 +17556,7 @@
     <t>Image with Title and Text</t>
   </si>
   <si>
-    <t>Imagen con título y texto</t>
+    <t>Imagen con Título y Texto</t>
   </si>
   <si>
     <t>Text with Image and Title</t>
@@ -17580,6 +17589,9 @@
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Agregar/Editar campos del formulario usando los campos personalizados</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17601,25 +17613,25 @@
     <t>Receivers</t>
   </si>
   <si>
-    <t>Receptores</t>
+    <t>receptores</t>
   </si>
   <si>
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Envíe los datos del formulario de contacto a los receptores personalizados cuando se envíe</t>
+    <t>Envíe los datos del formulario de contacto a los destinatarios personalizados cuando se envíe</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Utilice la configuración de receptores personalizados para el formulario de contacto actual.</t>
+    <t>Use la configuración de receptores personalizados para el formulario de contacto actual.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>De forma predeterminada, usaremos la configuración global del formulario de contacto.</t>
+    <t>De forma predeterminada, utilizaremos la configuración global del formulario de contacto.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17637,13 +17649,13 @@
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Habilitar mensaje de respuesta automática al usuario</t>
+    <t>Habilitar mensaje de respuesta automática para el usuario</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Permitir que los usuarios reciban "correos electrónicos de agradecimiento después de la suscripción".</t>
+    <t>Permita que los usuarios reciban "correos electrónicos de agradecimiento después de la suscripción".</t>
   </si>
   <si>
     <t>Auto respond subject</t>
@@ -17652,9 +17664,6 @@
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>Las respuestas automáticas le permiten configurar respuestas automáticas a los correos electrónicos entrantes</t>
-  </si>
-  <si>
     <t>Auto respond message</t>
   </si>
   <si>
@@ -17688,19 +17697,19 @@
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Respuesta automática respuesta al correo electrónico</t>
+    <t>Respuesta automática responder a correo electrónico</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Cuando el usuario recibe el mensaje de respuesta automática, puede responder para responder al correo electrónico.</t>
+    <t>Cuando el usuario recibe el mensaje de respuesta automática, puede responder al correo electrónico.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Respuesta automática a archivos adjuntos de correo electrónico</t>
+    <t>Adjuntos de correo electrónico de respuesta automática</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
@@ -17736,11 +17745,11 @@
   </si>
   <si>
     <t>Cómo escribir descripciones de productos que vendan
-                                                    Una de las mejores cosas que puede hacer para que su tienda tenga éxito es invertir algo de tiempo en escribir excelentes descripciones de productos. Desea proporcionar información detallada pero concisa que atraiga a los clientes potenciales a comprar.
+                                                    Una de las mejores cosas que puedes hacer para que tu tienda tenga éxito es invertir algo de tiempo en escribir excelentes descripciones de productos. Desea proporcionar información detallada pero concisa que atraiga a los clientes potenciales a comprar.
                                                     Piense como un consumidor
                                                     Piense en lo que a usted, como consumidor, le gustaría saber, luego incluya esas características en su descripción. Para la ropa: materiales y ajuste. Para la comida: ingredientes y cómo se preparó. Las viñetas son tus amigas cuando enumeras
-                                                   funciones: intenta limitar cada una a
-                                                            u 8 palabras.</t>
+                                                   funciones. Intenta
+                                                            limitar cada una a 5-8 palabras.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17749,352 +17758,265 @@
     <t>Idioma del administrador</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Añadir subpágina</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Categoría eliminada</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Categorías de búsqueda</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Crear contenido</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Alguna</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Descripción de identificación</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Límite</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>¿Seguro que quieres eliminar?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>No tienes ningún producto en</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>De regreso</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>categorías</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Los campos personalizados se guardan</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>campos existentes</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Elija entre sus campos existentes a continuación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agregar nuevos campos</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Agregue un nuevo campo personalizado de la lista a continuación</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>tus campos</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista de sus campos personalizados agregados</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Redirección del navegador</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integración</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Importar herramienta de exportación</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Actualizador independiente</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Paquete de vista previa</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Manifestación</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Utilizar</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Primera clase</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Haz clic y recoge</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Fondo de vídeo</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Puede activar el módulo Multi-idioma para usar varios idiomas</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Modo multi idioma</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Activa el modo multi-idioma para tener múltiples idiomas para tu contenido.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Las traducciones son importadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traducciones no encontradas en la base de datos. ¿Desea importar traducciones? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Tu carrito esta vacío.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Editor de código</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>títulos</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Títulos 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Títulos 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Títulos 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Títulos 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Títulos 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Títulos 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Títulos 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Títulos 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>bloque de texto</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Bloque de texto 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>bloque de texto 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Bloque de texto 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>bloque de texto 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Bloque de texto 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>bloque de texto 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>bloque de texto 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Bloque de texto 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>bloque de texto 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>bloque de texto 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Bloque de texto 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Bloque de texto 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Bloque de texto 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Bloque de texto 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Bloque de texto 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>características</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>caracteristicas 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>caracteristicas 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>caracteristicas 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>caracteristicas 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>rejillas</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>menú</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menú - piel-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menú - piel-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menú - piel-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menú - piel-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menú - piel-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>pies de página</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Pies de página 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Pies de página 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Pies de página 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Pies de página 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>otro</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>Jumbotrón 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>fijación de precios</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Precios 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Diseños predeterminados</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>No hay contenido aquí</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Los campos personalizados se guardan</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>campos existentes</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Elija entre sus campos existentes a continuación</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agregar nuevos campos</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Agregue un nuevo campo personalizado de la lista a continuación</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>tus campos</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Lista de sus campos personalizados agregados</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nueva importación</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18140,495 +18062,6 @@
   </si>
   <si>
     <t>Estilos de recarga</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Vínculos a</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Paquete de vista previa</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Manifestación</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Usar</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Reordenar</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sistema</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Redirección del navegador</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integración</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Actualizador independiente</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Necesita clave de licencia para instalar este paquete</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Este paquete es premium y debe tener una clave de licencia para instalarlo</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Necesita clave de licencia</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licencia activada</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>página de recarga</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licencia no activada</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Actualizaciones del sistema</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Buscar actualizaciones del sistema</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>volver a la lista</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>La categoría debe tener un nombre.</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>¿Está oculta la categoría?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Si establece esto en SÍ, esta categoría se ocultará del sitio web</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>mencionando</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Tu carrito esta vacío.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Resultados encontrados</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Si elige el porcentaje del campo de selección, se calculará automáticamente a partir del precio y el precio de oferta del producto.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>valores.multilenguaje.título.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Pasar por la caja</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Mostrando</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>resultados)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Título de la página: ruta de navegación derecha</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Título de la página: ruta de navegación izquierda</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Términos de Uso</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Entrega y devoluciones</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Alrededor de 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Sobre 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Alrededor de 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Casa 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>casa 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Debe hacer clic en el botón Aplicar plantilla para cambiar su plantilla</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Buscar por criterios</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Fecha de</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Establecer los pedidos desde la fecha</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Fecha hasta</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Establecer los pedidos a la fecha</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Importe del pedido desde</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Mostrar el pedido con importe mínimo</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Importe del pedido a</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Mostrar el pedido con importe máximo</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Buscar por productos...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Buscar por productos</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Estado de pago</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Búsqueda gratuita por teléfono, nombre, email, etc...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Enviar este criterio</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Restablecer filtro</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Exportar todo</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Seleccionar clasificación</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Fecha de orden</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Nuevo &gt; Antiguo]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Antiguo &gt; Nuevo]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Alto &gt; Bajo]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Bajo &gt; Alto]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Pedido completado</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>Se han encontrado traducciones del módulo multilenguaje en su base de datos.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>¡Advertencia! Cambiar el idioma predeterminado puede interrumpir las traducciones en su sitio.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>¿Seguro que quieres continuar?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>¡Advertencia! El idioma predeterminado cambiante tal vez rompa su sitio.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Detalles de envío</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>el pedido aún no se ha completado</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>el pedido esta completo</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vista rápida </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Reemplazar valores de idioma</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Las traducciones son importadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traducciones no encontradas en la base de datos. ¿Desea importar traducciones? </t>
   </si>
 </sst>
 </file>
@@ -18964,7 +18397,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69677,7 +69110,7 @@
         <v>5755</v>
       </c>
       <c r="D2983" t="s">
-        <v>3850</v>
+        <v>5756</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69691,10 +69124,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="D2984" t="s">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69708,10 +69141,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="D2985" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69725,10 +69158,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="D2986" t="s">
-        <v>5761</v>
+        <v>5762</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69742,10 +69175,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="D2987" t="s">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69759,10 +69192,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5764</v>
+        <v>5765</v>
       </c>
       <c r="D2988" t="s">
-        <v>5765</v>
+        <v>5766</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69776,10 +69209,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5766</v>
+        <v>5767</v>
       </c>
       <c r="D2989" t="s">
-        <v>5767</v>
+        <v>5768</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69793,10 +69226,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="D2990" t="s">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69810,10 +69243,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="D2991" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69827,10 +69260,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="D2992" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69844,10 +69277,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="D2993" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69861,10 +69294,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="D2994" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69878,10 +69311,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="D2995" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69895,10 +69328,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="D2996" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69912,10 +69345,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="D2997" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69929,10 +69362,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
       <c r="D2998" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69946,10 +69379,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="D2999" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69963,10 +69396,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="D3000" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69980,10 +69413,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="D3001" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69997,10 +69430,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="D3002" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -70014,10 +69447,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="D3003" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -70031,10 +69464,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="D3004" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -70048,10 +69481,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="D3005" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -70065,10 +69498,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="D3006" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70082,10 +69515,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D3007" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70099,10 +69532,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="D3008" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70116,10 +69549,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="D3009" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70133,10 +69566,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="D3010" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70150,10 +69583,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="D3011" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70167,10 +69600,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="D3012" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70184,10 +69617,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="D3013" t="s">
-        <v>5813</v>
+        <v>5815</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70201,10 +69634,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5814</v>
+        <v>5816</v>
       </c>
       <c r="D3014" t="s">
-        <v>5815</v>
+        <v>5817</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70218,10 +69651,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5816</v>
+        <v>5818</v>
       </c>
       <c r="D3015" t="s">
-        <v>5817</v>
+        <v>5819</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70235,10 +69668,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5818</v>
+        <v>5820</v>
       </c>
       <c r="D3016" t="s">
-        <v>5819</v>
+        <v>5821</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70252,10 +69685,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5820</v>
+        <v>5822</v>
       </c>
       <c r="D3017" t="s">
-        <v>3334</v>
+        <v>5823</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70269,7 +69702,7 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5821</v>
+        <v>5824</v>
       </c>
       <c r="D3018" t="s">
         <v>2910</v>
@@ -70286,10 +69719,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5822</v>
+        <v>5825</v>
       </c>
       <c r="D3019" t="s">
-        <v>5823</v>
+        <v>5826</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70303,7 +69736,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5824</v>
+        <v>5827</v>
       </c>
       <c r="D3020" t="s">
         <v>1574</v>
@@ -70320,10 +69753,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5825</v>
+        <v>5828</v>
       </c>
       <c r="D3021" t="s">
-        <v>5826</v>
+        <v>5829</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70337,10 +69770,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5827</v>
+        <v>5830</v>
       </c>
       <c r="D3022" t="s">
-        <v>5828</v>
+        <v>5831</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70354,10 +69787,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5829</v>
+        <v>5832</v>
       </c>
       <c r="D3023" t="s">
-        <v>5830</v>
+        <v>5833</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70371,10 +69804,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5831</v>
+        <v>5834</v>
       </c>
       <c r="D3024" t="s">
-        <v>5832</v>
+        <v>5835</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70388,10 +69821,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5833</v>
+        <v>5836</v>
       </c>
       <c r="D3025" t="s">
-        <v>5834</v>
+        <v>5837</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70405,10 +69838,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5835</v>
+        <v>5838</v>
       </c>
       <c r="D3026" t="s">
-        <v>5836</v>
+        <v>5839</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70422,10 +69855,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5837</v>
+        <v>5840</v>
       </c>
       <c r="D3027" t="s">
-        <v>5838</v>
+        <v>5841</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70439,10 +69872,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5839</v>
+        <v>5842</v>
       </c>
       <c r="D3028" t="s">
-        <v>5840</v>
+        <v>5843</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70456,10 +69889,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5841</v>
+        <v>5844</v>
       </c>
       <c r="D3029" t="s">
-        <v>5842</v>
+        <v>5845</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70473,10 +69906,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5843</v>
+        <v>5846</v>
       </c>
       <c r="D3030" t="s">
-        <v>5844</v>
+        <v>5847</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70490,7 +69923,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5845</v>
+        <v>5848</v>
       </c>
       <c r="D3031" t="s">
         <v>1125</v>
@@ -70507,10 +69940,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5846</v>
+        <v>5849</v>
       </c>
       <c r="D3032" t="s">
-        <v>5847</v>
+        <v>5850</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70524,10 +69957,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5848</v>
+        <v>5851</v>
       </c>
       <c r="D3033" t="s">
-        <v>5849</v>
+        <v>5852</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70541,10 +69974,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5850</v>
+        <v>5853</v>
       </c>
       <c r="D3034" t="s">
-        <v>5851</v>
+        <v>5854</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70558,10 +69991,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5852</v>
+        <v>5855</v>
       </c>
       <c r="D3035" t="s">
-        <v>4943</v>
+        <v>5856</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70575,10 +70008,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5853</v>
+        <v>5857</v>
       </c>
       <c r="D3036" t="s">
-        <v>5854</v>
+        <v>5858</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70592,10 +70025,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5855</v>
+        <v>5859</v>
       </c>
       <c r="D3037" t="s">
-        <v>5856</v>
+        <v>5860</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70609,10 +70042,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="D3038" t="s">
-        <v>5858</v>
+        <v>5862</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70626,10 +70059,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5859</v>
+        <v>5863</v>
       </c>
       <c r="D3039" t="s">
-        <v>5860</v>
+        <v>5864</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70643,10 +70076,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5861</v>
+        <v>5865</v>
       </c>
       <c r="D3040" t="s">
-        <v>5862</v>
+        <v>5866</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70660,10 +70093,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5863</v>
+        <v>5867</v>
       </c>
       <c r="D3041" t="s">
-        <v>5864</v>
+        <v>5868</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70677,10 +70110,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5865</v>
+        <v>5869</v>
       </c>
       <c r="D3042" t="s">
-        <v>5866</v>
+        <v>5870</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70694,10 +70127,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5867</v>
+        <v>5871</v>
       </c>
       <c r="D3043" t="s">
-        <v>5868</v>
+        <v>5872</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70711,10 +70144,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5869</v>
+        <v>5873</v>
       </c>
       <c r="D3044" t="s">
-        <v>5870</v>
+        <v>5874</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70728,10 +70161,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5871</v>
+        <v>5875</v>
       </c>
       <c r="D3045" t="s">
-        <v>5872</v>
+        <v>5876</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70745,10 +70178,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5873</v>
+        <v>5877</v>
       </c>
       <c r="D3046" t="s">
-        <v>5874</v>
+        <v>5878</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70762,7 +70195,7 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5875</v>
+        <v>5879</v>
       </c>
       <c r="D3047" t="s">
         <v>1971</v>
@@ -70779,10 +70212,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5876</v>
+        <v>5880</v>
       </c>
       <c r="D3048" t="s">
-        <v>5877</v>
+        <v>3142</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70796,7 +70229,7 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="D3049" t="s">
         <v>816</v>
@@ -70813,7 +70246,7 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
       <c r="D3050" t="s">
         <v>1766</v>
@@ -70830,10 +70263,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5880</v>
+        <v>5883</v>
       </c>
       <c r="D3051" t="s">
-        <v>5881</v>
+        <v>5884</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70847,10 +70280,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5882</v>
+        <v>5885</v>
       </c>
       <c r="D3052" t="s">
-        <v>5883</v>
+        <v>5886</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70864,10 +70297,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5884</v>
+        <v>5887</v>
       </c>
       <c r="D3053" t="s">
-        <v>5885</v>
+        <v>5888</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70881,10 +70314,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5886</v>
+        <v>5889</v>
       </c>
       <c r="D3054" t="s">
-        <v>5887</v>
+        <v>5890</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70898,10 +70331,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5888</v>
+        <v>5891</v>
       </c>
       <c r="D3055" t="s">
-        <v>5889</v>
+        <v>5892</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70915,10 +70348,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5890</v>
+        <v>5893</v>
       </c>
       <c r="D3056" t="s">
-        <v>5891</v>
+        <v>5894</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70932,10 +70365,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5892</v>
+        <v>5895</v>
       </c>
       <c r="D3057" t="s">
-        <v>5893</v>
+        <v>5896</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70949,7 +70382,7 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5894</v>
+        <v>5897</v>
       </c>
       <c r="D3058" t="s">
         <v>4235</v>
@@ -70966,10 +70399,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5895</v>
+        <v>5898</v>
       </c>
       <c r="D3059" t="s">
-        <v>5896</v>
+        <v>5899</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70983,10 +70416,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5897</v>
+        <v>5900</v>
       </c>
       <c r="D3060" t="s">
-        <v>5898</v>
+        <v>5901</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71000,10 +70433,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5899</v>
+        <v>5902</v>
       </c>
       <c r="D3061" t="s">
-        <v>5900</v>
+        <v>5903</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71014,13 +70447,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5901</v>
+        <v>5904</v>
       </c>
       <c r="C3062" t="s">
-        <v>5902</v>
+        <v>5905</v>
       </c>
       <c r="D3062" t="s">
-        <v>5903</v>
+        <v>5906</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71034,10 +70467,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5904</v>
+        <v>5907</v>
       </c>
       <c r="D3063" t="s">
-        <v>5905</v>
+        <v>5908</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71051,10 +70484,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5906</v>
+        <v>5909</v>
       </c>
       <c r="D3064" t="s">
-        <v>5907</v>
+        <v>4266</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71068,10 +70501,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5908</v>
+        <v>5910</v>
       </c>
       <c r="D3065" t="s">
-        <v>5909</v>
+        <v>5911</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71085,10 +70518,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5910</v>
+        <v>5912</v>
       </c>
       <c r="D3066" t="s">
-        <v>5910</v>
+        <v>5913</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71102,10 +70535,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5911</v>
+        <v>5914</v>
       </c>
       <c r="D3067" t="s">
-        <v>5912</v>
+        <v>983</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71119,10 +70552,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5913</v>
+        <v>5915</v>
       </c>
       <c r="D3068" t="s">
-        <v>5914</v>
+        <v>5916</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71136,10 +70569,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5915</v>
+        <v>5917</v>
       </c>
       <c r="D3069" t="s">
-        <v>5916</v>
+        <v>5918</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71153,10 +70586,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5917</v>
+        <v>5919</v>
       </c>
       <c r="D3070" t="s">
-        <v>5918</v>
+        <v>5920</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71170,10 +70603,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5919</v>
+        <v>5921</v>
       </c>
       <c r="D3071" t="s">
-        <v>5920</v>
+        <v>5922</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71187,10 +70620,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5921</v>
+        <v>5923</v>
       </c>
       <c r="D3072" t="s">
-        <v>5922</v>
+        <v>5924</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71204,10 +70637,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5923</v>
+        <v>5925</v>
       </c>
       <c r="D3073" t="s">
-        <v>5924</v>
+        <v>5925</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71221,10 +70654,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5925</v>
+        <v>5926</v>
       </c>
       <c r="D3074" t="s">
-        <v>5926</v>
+        <v>5927</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71238,10 +70671,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5927</v>
+        <v>5928</v>
       </c>
       <c r="D3075" t="s">
-        <v>5928</v>
+        <v>5929</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71255,10 +70688,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5929</v>
+        <v>5930</v>
       </c>
       <c r="D3076" t="s">
-        <v>5930</v>
+        <v>5931</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71272,10 +70705,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5931</v>
+        <v>5932</v>
       </c>
       <c r="D3077" t="s">
-        <v>5932</v>
+        <v>5933</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71289,10 +70722,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5933</v>
+        <v>5934</v>
       </c>
       <c r="D3078" t="s">
-        <v>5934</v>
+        <v>5935</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71306,10 +70739,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5935</v>
+        <v>5936</v>
       </c>
       <c r="D3079" t="s">
-        <v>5936</v>
+        <v>5937</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71323,10 +70756,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5937</v>
+        <v>5938</v>
       </c>
       <c r="D3080" t="s">
-        <v>5938</v>
+        <v>5939</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71340,10 +70773,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="D3081" t="s">
-        <v>5940</v>
+        <v>5941</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71357,10 +70790,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="D3082" t="s">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71374,10 +70807,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="D3083" t="s">
-        <v>5944</v>
+        <v>5945</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71391,10 +70824,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="D3084" t="s">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71408,10 +70841,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5947</v>
+        <v>5948</v>
       </c>
       <c r="D3085" t="s">
-        <v>5948</v>
+        <v>5949</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71425,10 +70858,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="D3086" t="s">
-        <v>5950</v>
+        <v>2413</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71462,7 +70895,7 @@
         <v>5953</v>
       </c>
       <c r="D3088" t="s">
-        <v>5954</v>
+        <v>5953</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71476,10 +70909,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3089" t="s">
         <v>5955</v>
-      </c>
-      <c r="D3089" t="s">
-        <v>5956</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71493,10 +70926,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3090" t="s">
         <v>5957</v>
-      </c>
-      <c r="D3090" t="s">
-        <v>5958</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71510,10 +70943,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3091" t="s">
         <v>5959</v>
-      </c>
-      <c r="D3091" t="s">
-        <v>5960</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71527,10 +70960,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3092" t="s">
         <v>5961</v>
-      </c>
-      <c r="D3092" t="s">
-        <v>5962</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71544,10 +70977,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3093" t="s">
         <v>5963</v>
-      </c>
-      <c r="D3093" t="s">
-        <v>5964</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71561,10 +70994,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3094" t="s">
         <v>5965</v>
-      </c>
-      <c r="D3094" t="s">
-        <v>5966</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71578,10 +71011,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3095" t="s">
         <v>5967</v>
-      </c>
-      <c r="D3095" t="s">
-        <v>5968</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71595,10 +71028,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3096" t="s">
         <v>5969</v>
-      </c>
-      <c r="D3096" t="s">
-        <v>5970</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71612,10 +71045,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5971</v>
+        <v>5970</v>
       </c>
       <c r="D3097" t="s">
-        <v>5972</v>
+        <v>927</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71629,10 +71062,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="D3098" t="s">
-        <v>5974</v>
+        <v>5972</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71646,10 +71079,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5975</v>
+        <v>5973</v>
       </c>
       <c r="D3099" t="s">
-        <v>5976</v>
+        <v>5974</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71663,10 +71096,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5977</v>
+        <v>5975</v>
       </c>
       <c r="D3100" t="s">
-        <v>5978</v>
+        <v>5976</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71680,10 +71113,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5979</v>
+        <v>5977</v>
       </c>
       <c r="D3101" t="s">
-        <v>5980</v>
+        <v>1516</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71697,10 +71130,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5981</v>
+        <v>5978</v>
       </c>
       <c r="D3102" t="s">
-        <v>5982</v>
+        <v>5979</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71714,10 +71147,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5983</v>
+        <v>5980</v>
       </c>
       <c r="D3103" t="s">
-        <v>5984</v>
+        <v>5981</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71731,10 +71164,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5985</v>
+        <v>5982</v>
       </c>
       <c r="D3104" t="s">
-        <v>5986</v>
+        <v>5983</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71748,10 +71181,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5987</v>
+        <v>5984</v>
       </c>
       <c r="D3105" t="s">
-        <v>5988</v>
+        <v>5985</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71765,10 +71198,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5989</v>
+        <v>5986</v>
       </c>
       <c r="D3106" t="s">
-        <v>5990</v>
+        <v>5987</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71782,10 +71215,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5991</v>
+        <v>5988</v>
       </c>
       <c r="D3107" t="s">
-        <v>5992</v>
+        <v>5989</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71799,10 +71232,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5993</v>
+        <v>5990</v>
       </c>
       <c r="D3108" t="s">
-        <v>5994</v>
+        <v>5991</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71815,11 +71248,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5996</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71832,11 +71265,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5993</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71850,10 +71283,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5997</v>
+        <v>5994</v>
       </c>
       <c r="D3111" t="s">
-        <v>5997</v>
+        <v>5995</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71867,10 +71300,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5998</v>
+        <v>5996</v>
       </c>
       <c r="D3112" t="s">
-        <v>5999</v>
+        <v>5997</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71884,10 +71317,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6000</v>
+        <v>5998</v>
       </c>
       <c r="D3113" t="s">
-        <v>6001</v>
+        <v>5999</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71901,10 +71334,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6002</v>
+        <v>6000</v>
       </c>
       <c r="D3114" t="s">
-        <v>6003</v>
+        <v>3916</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71918,10 +71351,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="D3115" t="s">
-        <v>6005</v>
+        <v>6002</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71935,10 +71368,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6006</v>
+        <v>6003</v>
       </c>
       <c r="D3116" t="s">
-        <v>6007</v>
+        <v>6004</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71952,10 +71385,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6008</v>
+        <v>6005</v>
       </c>
       <c r="D3117" t="s">
-        <v>6009</v>
+        <v>6006</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71969,10 +71402,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6010</v>
+        <v>6007</v>
       </c>
       <c r="D3118" t="s">
-        <v>6011</v>
+        <v>6008</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71986,1678 +71419,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6012</v>
+        <v>6009</v>
       </c>
       <c r="D3119" t="s">
-        <v>6013</v>
+        <v>6010</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>3916</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2735</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6082</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5901</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6092</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6092</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4360</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6186</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6187</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6188</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6189</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6190</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>2948</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2239</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6192</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6193</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6194</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6195</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6196</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6197</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6198</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6199</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
